--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_20-40.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_20-40.xlsx
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
     <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
@@ -2604,17 +2607,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2636,11 +2639,11 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>411</v>
+        <v>96</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2656,13 +2659,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2682,17 +2685,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2700,7 +2703,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2708,17 +2711,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2734,13 +2737,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2760,13 +2763,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2778,7 +2781,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2786,17 +2789,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2812,17 +2815,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>160.05000000000001</v>
+        <v>27</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2838,17 +2841,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>19.5</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2864,13 +2867,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>7</v>
+        <v>19.5</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2882,7 +2885,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2890,17 +2893,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2916,13 +2919,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>86.5</v>
+        <v>45</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2948,7 +2951,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>67</v>
+        <v>86.5</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2968,17 +2971,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2994,17 +2997,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3020,17 +3023,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>30.5</v>
+        <v>282</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3046,13 +3049,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3064,7 +3067,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3072,17 +3075,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>60</v>
+        <v>31.5</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3104,7 +3107,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3124,13 +3127,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3150,13 +3153,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>68.400000000000006</v>
+        <v>24</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3176,17 +3179,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>26.100000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3202,13 +3205,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>62</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3228,17 +3231,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3254,17 +3257,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3272,7 +3275,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3280,17 +3283,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>2.5</v>
+        <v>102</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3298,7 +3301,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3306,17 +3309,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>94.5</v>
+        <v>2.5</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3332,17 +3335,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3358,17 +3361,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3384,13 +3387,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3410,13 +3413,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3436,17 +3439,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3454,7 +3457,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3462,17 +3465,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3480,7 +3483,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3488,17 +3491,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3514,17 +3517,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>11</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3532,7 +3535,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3540,51 +3543,77 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="102" ht="26.25" customHeight="1">
-      <c r="K102" s="10">
-        <v>6726.3299999999999</v>
-      </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="11">
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="6">
+        <v>99</v>
+      </c>
+      <c t="s" r="B102" s="7">
+        <v>138</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c t="s" r="H102" s="8">
         <v>139</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c t="s" r="F103" s="12">
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="9">
+        <v>30</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c t="s" r="N102" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" ht="25.5" customHeight="1">
+      <c r="K103" s="10">
+        <v>6746.3299999999999</v>
+      </c>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+    </row>
+    <row r="104" ht="17.25" customHeight="1">
+      <c t="s" r="A104" s="11">
         <v>140</v>
       </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="13"/>
-      <c t="s" r="I103" s="14">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c t="s" r="F104" s="12">
         <v>141</v>
       </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="13"/>
+      <c t="s" r="I104" s="14">
+        <v>142</v>
+      </c>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="305">
+  <mergeCells count="308">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3886,10 +3915,13 @@
     <mergeCell ref="B101:G101"/>
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="I103:N103"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="I104:N104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
